--- a/src/main/resources/static/excelTemplate/Template_monitorData.xlsx
+++ b/src/main/resources/static/excelTemplate/Template_monitorData.xlsx
@@ -82,15 +82,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阀前压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阀后压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最不利点压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力p2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -470,13 +470,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
